--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S17/S17_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S17/S17_storagemod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01638682079841138</t>
-  </si>
-  <si>
-    <t>0.025507795405468495</t>
-  </si>
-  <si>
-    <t>0.04037904577619758</t>
-  </si>
-  <si>
-    <t>0.06286020699268544</t>
-  </si>
-  <si>
-    <t>0.0994541031009277</t>
-  </si>
-  <si>
-    <t>0.15484006536936532</t>
-  </si>
-  <si>
-    <t>0.24099337583840305</t>
-  </si>
-  <si>
-    <t>0.37515598637847164</t>
-  </si>
-  <si>
-    <t>0.5934269605527743</t>
-  </si>
-  <si>
-    <t>0.9234342179044057</t>
-  </si>
-  <si>
-    <t>1.4606377990347221</t>
-  </si>
-  <si>
-    <t>2.235798822241445</t>
-  </si>
-  <si>
-    <t>3.593813639626979</t>
-  </si>
-  <si>
-    <t>5.590376834339693</t>
-  </si>
-  <si>
-    <t>9.133252247068368</t>
-  </si>
-  <si>
-    <t>14.203609053226902</t>
-  </si>
-  <si>
-    <t>22.088792105973578</t>
-  </si>
-  <si>
-    <t>34.91661021292402</t>
-  </si>
-  <si>
-    <t>54.295211142870535</t>
-  </si>
-  <si>
-    <t>84.4201653417741</t>
-  </si>
-  <si>
-    <t>131.2362966259628</t>
-  </si>
-  <si>
-    <t>204.03495057728395</t>
-  </si>
-  <si>
-    <t>327.7307447045683</t>
-  </si>
-  <si>
-    <t>501.0851735130392</t>
-  </si>
-  <si>
-    <t>42.774062153034905</t>
-  </si>
-  <si>
-    <t>70.53280082623449</t>
-  </si>
-  <si>
-    <t>132.56898443891356</t>
-  </si>
-  <si>
-    <t>224.11930201667656</t>
-  </si>
-  <si>
-    <t>365.5554090449573</t>
-  </si>
-  <si>
-    <t>633.356274674817</t>
-  </si>
-  <si>
-    <t>1009.580998891029</t>
-  </si>
-  <si>
-    <t>1693.5388229858013</t>
-  </si>
-  <si>
-    <t>2614.667932591101</t>
-  </si>
-  <si>
-    <t>3965.119082298877</t>
-  </si>
-  <si>
-    <t>6053.015287162925</t>
-  </si>
-  <si>
-    <t>8845.870654425371</t>
-  </si>
-  <si>
-    <t>12712.624257611707</t>
-  </si>
-  <si>
-    <t>17585.36777019236</t>
-  </si>
-  <si>
-    <t>24891.35634471019</t>
-  </si>
-  <si>
-    <t>32188.362818961872</t>
-  </si>
-  <si>
-    <t>41624.51762839797</t>
-  </si>
-  <si>
-    <t>53826.92116220817</t>
-  </si>
-  <si>
-    <t>67800.21667669299</t>
-  </si>
-  <si>
-    <t>83136.18474564826</t>
-  </si>
-  <si>
-    <t>97342.56594184133</t>
-  </si>
-  <si>
-    <t>116944.69417076504</t>
-  </si>
-  <si>
-    <t>139512.5401205716</t>
-  </si>
-  <si>
-    <t>151404.34881871886</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.01638682079841138</v>
+      </c>
+      <c r="B2">
+        <v>42.7740621530349</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.0255077954054685</v>
+      </c>
+      <c r="B3">
+        <v>70.53280082623449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.04037904577619758</v>
+      </c>
+      <c r="B4">
+        <v>132.5689844389136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.06286020699268544</v>
+      </c>
+      <c r="B5">
+        <v>224.1193020166766</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.0994541031009277</v>
+      </c>
+      <c r="B6">
+        <v>365.5554090449573</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1548400653693653</v>
+      </c>
+      <c r="B7">
+        <v>633.356274674817</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2409933758384031</v>
+      </c>
+      <c r="B8">
+        <v>1009.580998891029</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3751559863784716</v>
+      </c>
+      <c r="B9">
+        <v>1693.538822985801</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5934269605527743</v>
+      </c>
+      <c r="B10">
+        <v>2614.667932591101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.9234342179044057</v>
+      </c>
+      <c r="B11">
+        <v>3965.119082298877</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.460637799034722</v>
+      </c>
+      <c r="B12">
+        <v>6053.015287162925</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.235798822241445</v>
+      </c>
+      <c r="B13">
+        <v>8845.870654425371</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.593813639626979</v>
+      </c>
+      <c r="B14">
+        <v>12712.62425761171</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.590376834339693</v>
+      </c>
+      <c r="B15">
+        <v>17585.36777019236</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>9.133252247068368</v>
+      </c>
+      <c r="B16">
+        <v>24891.35634471019</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>14.2036090532269</v>
+      </c>
+      <c r="B17">
+        <v>32188.36281896187</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>22.08879210597358</v>
+      </c>
+      <c r="B18">
+        <v>41624.51762839797</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>34.91661021292402</v>
+      </c>
+      <c r="B19">
+        <v>53826.92116220817</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>54.29521114287054</v>
+      </c>
+      <c r="B20">
+        <v>67800.21667669299</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>84.42016534177409</v>
+      </c>
+      <c r="B21">
+        <v>83136.18474564826</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>131.2362966259628</v>
+      </c>
+      <c r="B22">
+        <v>97342.56594184133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>204.034950577284</v>
+      </c>
+      <c r="B23">
+        <v>116944.694170765</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>327.7307447045683</v>
+      </c>
+      <c r="B24">
+        <v>139512.5401205716</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>501.0851735130392</v>
+      </c>
+      <c r="B25">
+        <v>151404.3488187189</v>
       </c>
     </row>
   </sheetData>
